--- a/Excel/Trilha Excel/Função Solver - Previsão/01_Previsão e Solver.xlsx
+++ b/Excel/Trilha Excel/Função Solver - Previsão/01_Previsão e Solver.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/a0a2f4a81bc3d9dd/Documentos/GitHub/Hashtag_AnaliseDados/Excel/Trilha Excel/Função Solver - Previsão/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1393" documentId="13_ncr:1_{7E0F5C96-33F8-4F5B-AE33-A266FEA4CFD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{27BF45F2-E37C-4160-BA87-099F4F1DDC43}"/>
+  <xr:revisionPtr revIDLastSave="1826" documentId="13_ncr:1_{7E0F5C96-33F8-4F5B-AE33-A266FEA4CFD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8C4E4066-5254-443A-BEA2-1B12FD0AAFB9}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="1000" xr2:uid="{25A05545-28B5-48BE-AB92-F3471190387D}"/>
+    <workbookView minimized="1" xWindow="8760" yWindow="1690" windowWidth="21600" windowHeight="11000" tabRatio="1000" xr2:uid="{25A05545-28B5-48BE-AB92-F3471190387D}"/>
   </bookViews>
   <sheets>
     <sheet name="Solver1" sheetId="11" r:id="rId1"/>
@@ -328,93 +328,81 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="2" fontId="2" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -439,6 +427,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -740,192 +732,191 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB08940D-A316-4D77-A3B9-D9548C3D6971}">
   <dimension ref="A1:Q15"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.7109375" style="5" customWidth="1"/>
-    <col min="2" max="5" width="15.7109375" style="5" customWidth="1"/>
-    <col min="6" max="6" width="15.7109375" style="17" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="9.42578125" style="5" customWidth="1"/>
-    <col min="8" max="8" width="10.28515625" style="5" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="9.42578125" style="5" customWidth="1"/>
-    <col min="11" max="16384" width="9.140625" style="5"/>
+    <col min="1" max="1" width="22.7109375" style="4" customWidth="1"/>
+    <col min="2" max="5" width="15.7109375" style="4" customWidth="1"/>
+    <col min="6" max="6" width="15.7109375" style="4" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="9.42578125" style="4" customWidth="1"/>
+    <col min="8" max="8" width="10.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="9.42578125" style="4" customWidth="1"/>
+    <col min="11" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="14"/>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="12"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A3" s="12" t="s">
+      <c r="A3" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="12" t="s">
+      <c r="C3" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="12" t="s">
+      <c r="D3" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="12" t="s">
+      <c r="E3" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="15"/>
+      <c r="F3" s="12"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A4" s="10" t="s">
+      <c r="A4" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B4" s="1">
         <v>2000</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C4" s="1">
         <v>2500</v>
       </c>
-      <c r="D4" s="3">
+      <c r="D4" s="2">
         <v>1.2</v>
       </c>
-      <c r="E4" s="4">
+      <c r="E4" s="3">
         <v>5</v>
       </c>
-      <c r="F4" s="16">
+      <c r="F4" s="4">
         <f>IFERROR($E4*$D4,0)</f>
         <v>6</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="H4" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
-      <c r="L4" s="1"/>
-      <c r="M4" s="1"/>
-      <c r="N4" s="1"/>
-      <c r="O4" s="1"/>
-      <c r="P4" s="1"/>
-      <c r="Q4" s="1"/>
+      <c r="I4" s="21"/>
+      <c r="J4" s="21"/>
+      <c r="K4" s="21"/>
+      <c r="L4" s="21"/>
+      <c r="M4" s="21"/>
+      <c r="N4" s="21"/>
+      <c r="O4" s="21"/>
+      <c r="P4" s="21"/>
+      <c r="Q4" s="21"/>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A5" s="10" t="s">
+      <c r="A5" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B5" s="1">
         <v>300</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C5" s="1">
         <v>500</v>
       </c>
-      <c r="D5" s="3">
+      <c r="D5" s="2">
         <v>0.2</v>
       </c>
-      <c r="E5" s="4">
+      <c r="E5" s="3">
         <v>6</v>
       </c>
-      <c r="F5" s="16">
+      <c r="F5" s="4">
         <f t="shared" ref="F5:F6" si="0">IFERROR($E5*$D5,0)</f>
         <v>1.2000000000000002</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A6" s="10" t="s">
+      <c r="A6" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B6" s="1">
         <v>200</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C6" s="1">
         <v>400</v>
       </c>
-      <c r="D6" s="3">
+      <c r="D6" s="2">
         <v>0.4</v>
       </c>
-      <c r="E6" s="4">
+      <c r="E6" s="3">
         <v>41</v>
       </c>
-      <c r="F6" s="16">
+      <c r="F6" s="4">
         <f t="shared" si="0"/>
         <v>16.400000000000002</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A7" s="23"/>
-      <c r="B7" s="24"/>
+      <c r="B7" s="18"/>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A8" s="26" t="s">
+      <c r="A8" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="B8" s="27"/>
-      <c r="C8" s="27"/>
-      <c r="D8" s="7"/>
+      <c r="B8" s="24"/>
+      <c r="C8" s="24"/>
+      <c r="D8" s="6"/>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A9" s="11" t="s">
+      <c r="A9" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="6">
+      <c r="B9" s="5">
         <f>$C$4*$E$4+$C$5*$E$5+$C$6*$E$6</f>
         <v>31900</v>
       </c>
-      <c r="C9" s="6">
+      <c r="C9" s="5">
         <f>SUMPRODUCT($C$4:$C$6,$E$4:$E$6)</f>
         <v>31900</v>
       </c>
-      <c r="D9" s="7"/>
+      <c r="D9" s="6"/>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D10" s="7"/>
+      <c r="D10" s="6"/>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A11" s="11" t="s">
+      <c r="A11" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="6">
+      <c r="B11" s="5">
         <f>$B$4*$E$4+$B$5*$E$5+$B$6*$E$6</f>
         <v>20000</v>
       </c>
-      <c r="C11" s="6">
+      <c r="C11" s="5">
         <f>SUMPRODUCT($B$4:$B$6,$E$4:$E$6)</f>
         <v>20000</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A12" s="11" t="s">
+      <c r="A12" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="8">
+      <c r="B12" s="7">
         <v>20000</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A14" s="11" t="s">
+      <c r="A14" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="B14" s="9">
+      <c r="B14" s="8">
         <f>$D$4*$E$4+$D$5*$E$5+$D$6*$E$6</f>
         <v>23.6</v>
       </c>
-      <c r="C14" s="9">
+      <c r="C14" s="8">
         <f>SUMPRODUCT($D$4:$D$6,$E$4:$E$6)</f>
         <v>23.6</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A15" s="11" t="s">
+      <c r="A15" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="B15" s="10">
+      <c r="B15" s="9">
         <v>30</v>
       </c>
     </row>
@@ -950,154 +941,154 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.7109375" style="5" customWidth="1"/>
-    <col min="2" max="6" width="12.42578125" style="5" customWidth="1"/>
-    <col min="7" max="7" width="9.85546875" style="5" hidden="1" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="5"/>
+    <col min="1" max="1" width="14.7109375" style="4" customWidth="1"/>
+    <col min="2" max="6" width="12.42578125" style="4" customWidth="1"/>
+    <col min="7" max="7" width="9.85546875" style="4" hidden="1" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="12" t="s">
+      <c r="A3" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="C3" s="12" t="s">
+      <c r="C3" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="D3" s="12" t="s">
+      <c r="D3" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="E3" s="12" t="s">
+      <c r="E3" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="F3" s="12" t="s">
+      <c r="F3" s="11" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="10" t="s">
+      <c r="A4" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="18">
+      <c r="B4" s="13">
         <v>42</v>
       </c>
-      <c r="C4" s="19">
+      <c r="C4" s="14">
         <v>2</v>
       </c>
-      <c r="D4" s="20">
+      <c r="D4" s="15">
         <v>30</v>
       </c>
-      <c r="E4" s="20">
+      <c r="E4" s="15">
         <v>42</v>
       </c>
-      <c r="F4" s="21">
+      <c r="F4" s="16">
         <f>$B$4*$C$4</f>
         <v>84</v>
       </c>
-      <c r="G4" s="21">
+      <c r="G4" s="16">
         <f>SUBTOTAL(6,$B4,$C4)</f>
         <v>84</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="10" t="s">
+      <c r="A5" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="18">
+      <c r="B5" s="13">
         <v>40.499999999999979</v>
       </c>
-      <c r="C5" s="19">
+      <c r="C5" s="14">
         <v>3</v>
       </c>
-      <c r="D5" s="20">
+      <c r="D5" s="15">
         <v>30</v>
       </c>
-      <c r="E5" s="20">
+      <c r="E5" s="15">
         <v>52.5</v>
       </c>
-      <c r="F5" s="21">
+      <c r="F5" s="16">
         <f t="shared" ref="F5:F7" si="0">B5*C5</f>
         <v>121.49999999999994</v>
       </c>
-      <c r="G5" s="21">
+      <c r="G5" s="16">
         <f t="shared" ref="G5:G7" si="1">SUBTOTAL(6,$B5,$C5)</f>
         <v>121.49999999999994</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="10" t="s">
+      <c r="A6" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="B6" s="18">
+      <c r="B6" s="13">
         <v>30</v>
       </c>
-      <c r="C6" s="19">
+      <c r="C6" s="14">
         <v>5</v>
       </c>
-      <c r="D6" s="20">
+      <c r="D6" s="15">
         <v>30</v>
       </c>
-      <c r="E6" s="20">
+      <c r="E6" s="15">
         <v>45</v>
       </c>
-      <c r="F6" s="21">
+      <c r="F6" s="16">
         <f t="shared" si="0"/>
         <v>150</v>
       </c>
-      <c r="G6" s="21">
+      <c r="G6" s="16">
         <f t="shared" si="1"/>
         <v>150</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="10" t="s">
+      <c r="A7" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="18">
+      <c r="B7" s="13">
         <v>37.5</v>
       </c>
-      <c r="C7" s="19">
+      <c r="C7" s="14">
         <v>2.5</v>
       </c>
-      <c r="D7" s="20">
+      <c r="D7" s="15">
         <v>15</v>
       </c>
-      <c r="E7" s="20">
+      <c r="E7" s="15">
         <v>37.5</v>
       </c>
-      <c r="F7" s="21">
+      <c r="F7" s="16">
         <f t="shared" si="0"/>
         <v>93.75</v>
       </c>
-      <c r="G7" s="21">
+      <c r="G7" s="16">
         <f t="shared" si="1"/>
         <v>93.75</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="11" t="s">
+      <c r="A8" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="B8" s="22">
+      <c r="B8" s="17">
         <f>SUM($B$4:$B$7)</f>
         <v>149.99999999999997</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="28"/>
-      <c r="B9" s="29"/>
+      <c r="A9" s="19"/>
+      <c r="B9" s="20"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="25" t="s">
@@ -1106,18 +1097,18 @@
       <c r="B10" s="25"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="11" t="s">
+      <c r="A11" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="11">
+      <c r="B11" s="10">
         <v>150</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="11" t="s">
+      <c r="A12" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="21">
+      <c r="B12" s="16">
         <f>SUBTOTAL(9,$F$4:$F$7)</f>
         <v>449.24999999999994</v>
       </c>
